--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B151782-99DC-1E40-B7BF-F19EC403E2D8}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="6" activeTab="15" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3A09C-A729-4E4C-AFE6-2A32BBE84757}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FCAA5C-D36D-094A-980D-52236C9CF2F6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>

--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B151782-99DC-1E40-B7BF-F19EC403E2D8}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83EB2BD1-2095-6C40-A3D2-825AB0BCD9E4}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="3" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>题目id</t>
   </si>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +112,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,11 +143,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3A09C-A729-4E4C-AFE6-2A32BBE84757}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1546,12 +1556,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9009844-35EB-6947-963B-BB44045608CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83EB2BD1-2095-6C40-A3D2-825AB0BCD9E4}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC0AE7E3-9300-1345-B590-C286CE059633}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="3" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,13 +112,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,14 +136,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1559,139 +1549,134 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC0AE7E3-9300-1345-B590-C286CE059633}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0EFAB4B-6A96-394B-8F8B-ED877666EBBC}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="3" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="5" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>题目id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1548,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9009844-35EB-6947-963B-BB44045608CB}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1687,12 +1693,129 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFE751-EF7C-1E4F-904B-239A34B5C91D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1700,12 +1823,145 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D8EAC8-8F8D-C94B-9C7C-1A79E78F6D41}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0EFAB4B-6A96-394B-8F8B-ED877666EBBC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83FA7D75-4682-0B4D-A46B-DB5A0147EAD4}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="5" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="6" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>题目id</t>
   </si>
@@ -1825,6 +1825,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D8EAC8-8F8D-C94B-9C7C-1A79E78F6D41}">
   <dimension ref="A1:H5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F09FEDB-8EF1-CD44-9E29-AA5826AEAA37}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
@@ -1862,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>22</v>
@@ -1870,18 +2016,10 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -1891,13 +2029,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1906,7 +2044,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1914,25 +2052,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1940,41 +2078,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F09FEDB-8EF1-CD44-9E29-AA5826AEAA37}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83FA7D75-4682-0B4D-A46B-DB5A0147EAD4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCC6C0E9-073C-3B40-A79E-DAF410BF54C7}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="6" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="7" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
   <si>
     <t>题目id</t>
   </si>
@@ -1971,6 +1971,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F09FEDB-8EF1-CD44-9E29-AA5826AEAA37}">
   <dimension ref="A1:H5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5C831E-BA49-634D-A1EB-BA2EEA8C19E5}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
@@ -2008,43 +2138,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>25</v>
       </c>
       <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2055,22 +2193,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2078,33 +2216,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5C831E-BA49-634D-A1EB-BA2EEA8C19E5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCC6C0E9-073C-3B40-A79E-DAF410BF54C7}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7979910D-C22A-5941-8517-156F692DC2EF}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="7" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="9" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
   <si>
     <t>题目id</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>A,D</t>
   </si>
 </sst>
 </file>
@@ -1203,12 +1206,171 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE9E05A-C876-104A-9B4A-EC45E84F9DEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2101,7 +2263,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5C831E-BA49-634D-A1EB-BA2EEA8C19E5}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364837B0-07C0-534E-ADBD-5532486A8E2C}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
@@ -2138,25 +2446,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2167,22 +2475,22 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>31</v>
-      </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2190,68 +2498,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364837B0-07C0-534E-ADBD-5532486A8E2C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/dfl4.xlsx
+++ b/data/dfl4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7979910D-C22A-5941-8517-156F692DC2EF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C26444AE-4A2F-A446-BA68-0BB8E7C42395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61A8FD1E-1295-E848-83F1-D7C9564B6BC3}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" activeTab="9" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20180" firstSheet="1" activeTab="10" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
   <si>
     <t>题目id</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>A,D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE9E05A-C876-104A-9B4A-EC45E84F9DEB}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
@@ -1378,12 +1381,111 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F273B0-BFCE-1D41-BED6-EC6ACBC57D91}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
